--- a/Question_Sample.xlsx
+++ b/Question_Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn_CN\Online-Quiz-System-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkingAndLearning\WebLearning\Online-Quiz-System-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6024EA3-CBFF-4E34-98B3-A7672307593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD687CA0-CD2F-4EAB-B0F3-9D9CDD3FC8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>text</t>
   </si>
@@ -70,21 +70,6 @@
     <t>What year did World War II end?</t>
   </si>
   <si>
-    <t>[{'text': 'Paris', 'isCorrect': True}, {'text': 'London', 'isCorrect': False}, {'text': 'Berlin', 'isCorrect': False}, {'text': 'Madrid', 'isCorrect': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Earth', 'isCorrect': False}, {'text': 'Jupiter', 'isCorrect': True}, {'text': 'Mars', 'isCorrect': False}, {'text': 'Venus', 'isCorrect': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Charles Dickens', 'isCorrect': False}, {'text': 'William Shakespeare', 'isCorrect': True}, {'text': 'Mark Twain', 'isCorrect': False}, {'text': 'Ernest Hemingway', 'isCorrect': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'H2O', 'isCorrect': True}, {'text': 'O2', 'isCorrect': False}, {'text': 'CO2', 'isCorrect': False}, {'text': 'HO', 'isCorrect': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': '1945', 'isCorrect': True}, {'text': '1939', 'isCorrect': False}, {'text': '1942', 'isCorrect': False}, {'text': '1948', 'isCorrect': False}]</t>
-  </si>
-  <si>
     <t>Easy</t>
   </si>
   <si>
@@ -155,6 +140,24 @@
   </si>
   <si>
     <t>6763ff7ed571bc2f342cea70</t>
+  </si>
+  <si>
+    <t>[{"text": "Paris", "isCorrect": true}, {"text": "London", "isCorrect": false}, {"text": "Berlin", "isCorrect": false}, {"text": "Madrid", "isCorrect": false}]</t>
+  </si>
+  <si>
+    <t>[{"text": "Earth", "isCorrect": false}, {"text": "Jupiter", "isCorrect": true}, {"text": "Mars", "isCorrect": false}, {"text": "Venus", "isCorrect": false}]</t>
+  </si>
+  <si>
+    <t>[{"text": "Charles Dickens", "isCorrect": false}, {"text": "William Shakespeare", "isCorrect": true}, {"text": "Mark Twain", "isCorrect": false}, {"text": "Ernest Hemingway", "isCorrect": false}]</t>
+  </si>
+  <si>
+    <t>[{"text": "H2O", "isCorrect": true}, {"text": "O2", "isCorrect": false}, {"text": "CO2", "isCorrect": false}, {"text": "HO", "isCorrect": false}]</t>
+  </si>
+  <si>
+    <t>[{"text": "1945", "isCorrect": true}, {"text": "1939", "isCorrect": false}, {"text": "1942", "isCorrect": false}, {"text": "1948", "isCorrect": false}]</t>
+  </si>
+  <si>
+    <t>676558797364d56f939997c2</t>
   </si>
 </sst>
 </file>
@@ -242,9 +245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,9 +285,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +320,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,9 +372,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,23 +565,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="148.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,206 +592,224 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
         <v>90</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
         <v>120</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="I6">
-        <v>120</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Question_Sample.xlsx
+++ b/Question_Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkingAndLearning\WebLearning\Online-Quiz-System-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Quiz-System-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD687CA0-CD2F-4EAB-B0F3-9D9CDD3FC8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A36BC1-3577-4DF1-BB0A-2B0043C591A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>text</t>
   </si>
@@ -43,18 +43,12 @@
     <t>createdBy</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>timeLimit</t>
   </si>
   <si>
     <t>explanation</t>
   </si>
   <si>
-    <t>usage</t>
-  </si>
-  <si>
     <t>What is the capital of France?</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>64d82b3e1a5c4c0012345679</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Paris is the capital of France.</t>
   </si>
   <si>
@@ -110,36 +101,6 @@
   </si>
   <si>
     <t>World War II ended in 1945.</t>
-  </si>
-  <si>
-    <t>{'usedCount': 10, 'correctCount': 8, 'lastUsed': '2024-11-28'}</t>
-  </si>
-  <si>
-    <t>{'usedCount': 15, 'correctCount': 10, 'lastUsed': '2024-11-27'}</t>
-  </si>
-  <si>
-    <t>{'usedCount': 20, 'correctCount': 18, 'lastUsed': '2024-11-26'}</t>
-  </si>
-  <si>
-    <t>{'usedCount': 25, 'correctCount': 22, 'lastUsed': '2024-11-25'}</t>
-  </si>
-  <si>
-    <t>{'usedCount': 30, 'correctCount': 25, 'lastUsed': '2024-11-24'}</t>
-  </si>
-  <si>
-    <t>6763ff7ed571bc2f342cea66</t>
-  </si>
-  <si>
-    <t>6763ff7ed571bc2f342cea67</t>
-  </si>
-  <si>
-    <t>6763ff7ed571bc2f342cea68</t>
-  </si>
-  <si>
-    <t>6763ff7ed571bc2f342cea69</t>
-  </si>
-  <si>
-    <t>6763ff7ed571bc2f342cea70</t>
   </si>
   <si>
     <t>[{"text": "Paris", "isCorrect": true}, {"text": "London", "isCorrect": false}, {"text": "Berlin", "isCorrect": false}, {"text": "Madrid", "isCorrect": false}]</t>
@@ -245,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,9 +246,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,26 +281,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,26 +316,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,26 +492,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="148.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,215 +528,161 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4">
-        <v>120</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6">
-        <v>120</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Question_Sample.xlsx
+++ b/Question_Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Quiz-System-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkingAndLearning\WebLearning\Online-Quiz-System-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A36BC1-3577-4DF1-BB0A-2B0043C591A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90237B6-089A-4DCB-B3DF-5C200931AC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>text</t>
   </si>
@@ -40,9 +40,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>createdBy</t>
-  </si>
-  <si>
     <t>timeLimit</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>History</t>
-  </si>
-  <si>
-    <t>64d82b3e1a5c4c0012345679</t>
   </si>
   <si>
     <t>Paris is the capital of France.</t>
@@ -206,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,9 +240,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +275,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,9 +327,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,26 +520,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="165.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,153 +563,135 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3">
-        <v>90</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>120</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
+      <c r="H4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
+      <c r="H5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="G6">
         <v>120</v>
       </c>
-      <c r="I6" t="s">
-        <v>26</v>
+      <c r="H6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
